--- a/medicine/Enfance/Alice_et_le_Cheval_volé/Alice_et_le_Cheval_volé.xlsx
+++ b/medicine/Enfance/Alice_et_le_Cheval_volé/Alice_et_le_Cheval_volé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_le_Cheval_vol%C3%A9</t>
+          <t>Alice_et_le_Cheval_volé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et le Cheval volé (titre original : Race Against Time, littéralement : « Course contre la montre ») est le soixante-sixième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est James Duncan.
+Alice et le Cheval volé (titre original : Race Against Time, littéralement : « Course contre la montre ») est le soixante-sixième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est James Duncan.
 Aux États-Unis, le roman a été publié pour la première fois en 1982 par Simon &amp; Schuster, New York. En France, il est paru pour la première fois en 1987 chez Hachette dans la collection Bibliothèque verte.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_le_Cheval_vol%C3%A9</t>
+          <t>Alice_et_le_Cheval_volé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1987 à 2000 en langue française.
 Un propriétaire de ranch sollicite les talents de détective d'Alice pour retrouver son cheval de prix, Étoile Filante, qui a été volé, et qui doit très prochainement participer à une compétition...
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_le_Cheval_vol%C3%A9</t>
+          <t>Alice_et_le_Cheval_volé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,15 +562,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy : héroïne du roman, dix-huit ans, orpheline de mère.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy : héroïne du roman, dix-huit ans, orpheline de mère.
 James Roy : avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor : jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb : jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson : jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
-Sarah Berny[2] : la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Commissaire Mac Guinnis[3] : ami d'Alice.
+Sarah Berny : la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_le_Cheval_volé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_le_Cheval_vol%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Commissaire Mac Guinnis : ami d'Alice.
 M. Ulman : le propriétaire du manoir.
 Roger Harlow : propriétaire du ranch.
 Tina : sept ans petite-fille de Roger Harlow.
@@ -569,31 +622,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_le_Cheval_vol%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_le_Cheval_volé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_le_Cheval_vol%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1987 : Hachette, collection Bibliothèque verte (série hachurée), cartonné (français, version originale). Illustré par Philippe Daure. Texte français de Dominique Rousset. 20 chapitres. 191 pages.
 1992 : Hachette, collection Bibliothèque verte no 476, souple (français, version originale). Illustré par Philippe Daure. Texte français de Dominique Rousset. 20 chapitres. 217 pages.
